--- a/trialTypes.xlsx
+++ b/trialTypes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBP/Research/Consultation services/PHSU/Design and stats consultation/Proyecto Eliut - EEG/Suicidal Behavior/Emotional Stroop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22028386-0D20-7C46-B00E-D842E3A622D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="10200" windowWidth="25320" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trialTypes.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>text</t>
   </si>
@@ -55,13 +61,22 @@
   </si>
   <si>
     <t>right</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>azul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -110,6 +125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,16 +455,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,9 +481,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -469,9 +495,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -483,9 +509,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -497,9 +523,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -511,9 +537,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -525,9 +551,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -539,9 +565,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -553,9 +579,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -567,9 +593,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -581,9 +607,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -595,9 +621,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -609,9 +635,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
